--- a/new_modules/Summary_2023-06-11_L2A.xlsx
+++ b/new_modules/Summary_2023-06-11_L2A.xlsx
@@ -456,25 +456,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>1309.062744140625</v>
+        <v>1308.811279296875</v>
       </c>
       <c r="C2">
-        <v>0.982</v>
+        <v>0.9819</v>
       </c>
       <c r="D2">
-        <v>0.9329000115394592</v>
+        <v>0.932699978351593</v>
       </c>
       <c r="E2">
-        <v>1.580899953842163</v>
+        <v>1.58050000667572</v>
       </c>
       <c r="F2">
-        <v>0.7057999968528748</v>
+        <v>0.7056000232696533</v>
       </c>
       <c r="G2">
         <v>13.33</v>
       </c>
       <c r="H2">
-        <v>1.0045</v>
+        <v>1.0029</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -482,25 +482,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>1202.461547851562</v>
+        <v>1202.23046875</v>
       </c>
       <c r="C3">
-        <v>0.962</v>
+        <v>0.9618</v>
       </c>
       <c r="D3">
-        <v>0.9409</v>
+        <v>0.9407</v>
       </c>
       <c r="E3">
-        <v>2.047499895095825</v>
+        <v>2.047100067138672</v>
       </c>
       <c r="F3">
-        <v>0.741100013256073</v>
+        <v>0.7408999800682068</v>
       </c>
       <c r="G3">
         <v>12.5</v>
       </c>
       <c r="H3">
-        <v>1.0753</v>
+        <v>1.0737</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -508,25 +508,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>730.3178100585938</v>
+        <v>730.177490234375</v>
       </c>
       <c r="C4">
-        <v>0.8532</v>
+        <v>0.853</v>
       </c>
       <c r="D4">
-        <v>0.8437</v>
+        <v>0.8435</v>
       </c>
       <c r="E4">
-        <v>1.136000037193298</v>
+        <v>1.135800004005432</v>
       </c>
       <c r="F4">
-        <v>0.7343999743461609</v>
+        <v>0.7342000007629395</v>
       </c>
       <c r="G4">
         <v>8.56</v>
       </c>
       <c r="H4">
-        <v>0.214</v>
+        <v>0.2126</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -534,25 +534,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>727.4439697265625</v>
+        <v>727.30419921875</v>
       </c>
       <c r="C5">
-        <v>0.7673</v>
+        <v>0.7672</v>
       </c>
       <c r="D5">
-        <v>0.7611</v>
+        <v>0.761</v>
       </c>
       <c r="E5">
-        <v>1.112599968910217</v>
+        <v>1.112400054931641</v>
       </c>
       <c r="F5">
-        <v>0.6725000143051147</v>
+        <v>0.6722999811172485</v>
       </c>
       <c r="G5">
         <v>9.48</v>
       </c>
       <c r="H5">
-        <v>-0.5175</v>
+        <v>-0.5187</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -560,25 +560,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1057.3896484375</v>
+        <v>1057.1865234375</v>
       </c>
       <c r="C6">
-        <v>0.8365</v>
+        <v>0.8364</v>
       </c>
       <c r="D6">
-        <v>0.8396</v>
+        <v>0.8395</v>
       </c>
       <c r="E6">
-        <v>1.127300024032593</v>
+        <v>1.127099990844727</v>
       </c>
       <c r="F6">
-        <v>0.705299973487854</v>
+        <v>0.7050999999046326</v>
       </c>
       <c r="G6">
         <v>12.64</v>
       </c>
       <c r="H6">
-        <v>0.1783</v>
+        <v>0.1768</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -586,25 +586,25 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>913.8206176757812</v>
+        <v>913.6450805664062</v>
       </c>
       <c r="C7">
-        <v>0.9203</v>
+        <v>0.9201</v>
       </c>
       <c r="D7">
-        <v>0.913100004196167</v>
+        <v>0.9129999876022339</v>
       </c>
       <c r="E7">
-        <v>1.261199951171875</v>
+        <v>1.260900020599365</v>
       </c>
       <c r="F7">
-        <v>0.7616000175476074</v>
+        <v>0.7613999843597412</v>
       </c>
       <c r="G7">
         <v>9.93</v>
       </c>
       <c r="H7">
-        <v>0.8292</v>
+        <v>0.8276</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -612,25 +612,25 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>1033.338134765625</v>
+        <v>1033.1396484375</v>
       </c>
       <c r="C8">
-        <v>0.9258999999999999</v>
+        <v>0.9258</v>
       </c>
       <c r="D8">
-        <v>0.9164</v>
+        <v>0.9162</v>
       </c>
       <c r="E8">
-        <v>1.29610002040863</v>
+        <v>1.295899987220764</v>
       </c>
       <c r="F8">
-        <v>0.8041999936103821</v>
+        <v>0.8040000200271606</v>
       </c>
       <c r="G8">
         <v>11.16</v>
       </c>
       <c r="H8">
-        <v>0.8579</v>
+        <v>0.8563</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -638,25 +638,25 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>6973.8349609375</v>
+        <v>6972.49462890625</v>
       </c>
       <c r="C9">
-        <v>0.8987000000000001</v>
+        <v>0.8986</v>
       </c>
       <c r="D9">
-        <v>0.885</v>
+        <v>0.8848</v>
       </c>
       <c r="E9">
-        <v>2.047499895095825</v>
+        <v>2.047100067138672</v>
       </c>
       <c r="F9">
-        <v>0.6725000143051147</v>
+        <v>0.6722999811172485</v>
       </c>
       <c r="G9">
         <v>77.59999999999999</v>
       </c>
       <c r="H9">
-        <v>3.641699999999999</v>
+        <v>3.6312</v>
       </c>
     </row>
   </sheetData>

--- a/new_modules/Summary_2023-06-11_L2A.xlsx
+++ b/new_modules/Summary_2023-06-11_L2A.xlsx
@@ -456,25 +456,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>1308.811279296875</v>
+        <v>1260.862915039062</v>
       </c>
       <c r="C2">
-        <v>0.9819</v>
+        <v>0.9459</v>
       </c>
       <c r="D2">
-        <v>0.932699978351593</v>
+        <v>0.916100025177002</v>
       </c>
       <c r="E2">
-        <v>1.58050000667572</v>
+        <v>1.18560004234314</v>
       </c>
       <c r="F2">
-        <v>0.7056000232696533</v>
+        <v>0.8449000120162964</v>
       </c>
       <c r="G2">
         <v>13.33</v>
       </c>
       <c r="H2">
-        <v>1.0029</v>
+        <v>0.8559</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -482,25 +482,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>1202.23046875</v>
+        <v>1141.188232421875</v>
       </c>
       <c r="C3">
-        <v>0.9618</v>
+        <v>0.913</v>
       </c>
       <c r="D3">
-        <v>0.9407</v>
+        <v>0.9068000000000001</v>
       </c>
       <c r="E3">
-        <v>2.047100067138672</v>
+        <v>1.23769998550415</v>
       </c>
       <c r="F3">
-        <v>0.7408999800682068</v>
+        <v>0.8561000227928162</v>
       </c>
       <c r="G3">
         <v>12.5</v>
       </c>
       <c r="H3">
-        <v>1.0737</v>
+        <v>0.7727000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -508,25 +508,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>730.177490234375</v>
+        <v>764.6358032226562</v>
       </c>
       <c r="C4">
-        <v>0.853</v>
+        <v>0.8933</v>
       </c>
       <c r="D4">
-        <v>0.8435</v>
+        <v>0.8933</v>
       </c>
       <c r="E4">
-        <v>1.135800004005432</v>
+        <v>0.9495999813079834</v>
       </c>
       <c r="F4">
-        <v>0.7342000007629395</v>
+        <v>0.8312000036239624</v>
       </c>
       <c r="G4">
         <v>8.56</v>
       </c>
       <c r="H4">
-        <v>0.2126</v>
+        <v>0.6536999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -534,25 +534,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>727.30419921875</v>
+        <v>848.4271240234375</v>
       </c>
       <c r="C5">
-        <v>0.7672</v>
+        <v>0.895</v>
       </c>
       <c r="D5">
-        <v>0.761</v>
+        <v>0.8942</v>
       </c>
       <c r="E5">
-        <v>1.112400054931641</v>
+        <v>0.991100013256073</v>
       </c>
       <c r="F5">
-        <v>0.6722999811172485</v>
+        <v>0.8418999910354614</v>
       </c>
       <c r="G5">
         <v>9.48</v>
       </c>
       <c r="H5">
-        <v>-0.5187</v>
+        <v>0.661</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -560,25 +560,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1057.1865234375</v>
+        <v>1145.98583984375</v>
       </c>
       <c r="C6">
-        <v>0.8364</v>
+        <v>0.9066</v>
       </c>
       <c r="D6">
-        <v>0.8395</v>
+        <v>0.9067</v>
       </c>
       <c r="E6">
-        <v>1.127099990844727</v>
+        <v>0.9681000113487244</v>
       </c>
       <c r="F6">
-        <v>0.7050999999046326</v>
+        <v>0.8309999704360962</v>
       </c>
       <c r="G6">
         <v>12.64</v>
       </c>
       <c r="H6">
-        <v>0.1768</v>
+        <v>0.7723</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -586,25 +586,25 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>913.6450805664062</v>
+        <v>925.951171875</v>
       </c>
       <c r="C7">
-        <v>0.9201</v>
+        <v>0.9325</v>
       </c>
       <c r="D7">
-        <v>0.9129999876022339</v>
+        <v>0.9300000071525574</v>
       </c>
       <c r="E7">
-        <v>1.260900020599365</v>
+        <v>1.064100027084351</v>
       </c>
       <c r="F7">
-        <v>0.7613999843597412</v>
+        <v>0.8758000135421753</v>
       </c>
       <c r="G7">
         <v>9.93</v>
       </c>
       <c r="H7">
-        <v>0.8276</v>
+        <v>0.9787</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -612,25 +612,25 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>1033.1396484375</v>
+        <v>1038.666381835938</v>
       </c>
       <c r="C8">
-        <v>0.9258</v>
+        <v>0.9307</v>
       </c>
       <c r="D8">
-        <v>0.9162</v>
+        <v>0.9292</v>
       </c>
       <c r="E8">
-        <v>1.295899987220764</v>
+        <v>1.075399994850159</v>
       </c>
       <c r="F8">
-        <v>0.8040000200271606</v>
+        <v>0.888700008392334</v>
       </c>
       <c r="G8">
         <v>11.16</v>
       </c>
       <c r="H8">
-        <v>0.8563</v>
+        <v>0.9718</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -638,25 +638,25 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>6972.49462890625</v>
+        <v>7125.7177734375</v>
       </c>
       <c r="C9">
-        <v>0.8986</v>
+        <v>0.9183</v>
       </c>
       <c r="D9">
-        <v>0.8848</v>
+        <v>0.9121</v>
       </c>
       <c r="E9">
-        <v>2.047100067138672</v>
+        <v>1.23769998550415</v>
       </c>
       <c r="F9">
-        <v>0.6722999811172485</v>
+        <v>0.8309999704360962</v>
       </c>
       <c r="G9">
         <v>77.59999999999999</v>
       </c>
       <c r="H9">
-        <v>3.6312</v>
+        <v>5.6661</v>
       </c>
     </row>
   </sheetData>

--- a/new_modules/Summary_2023-06-11_L2A.xlsx
+++ b/new_modules/Summary_2023-06-11_L2A.xlsx
@@ -456,25 +456,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>1260.862915039062</v>
+        <v>1308.811279296875</v>
       </c>
       <c r="C2">
-        <v>0.9459</v>
+        <v>0.9819</v>
       </c>
       <c r="D2">
-        <v>0.916100025177002</v>
+        <v>0.932699978351593</v>
       </c>
       <c r="E2">
-        <v>1.18560004234314</v>
+        <v>1.58050000667572</v>
       </c>
       <c r="F2">
-        <v>0.8449000120162964</v>
+        <v>0.7056000232696533</v>
       </c>
       <c r="G2">
         <v>13.33</v>
       </c>
       <c r="H2">
-        <v>0.8559</v>
+        <v>1.0029</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -482,25 +482,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>1141.188232421875</v>
+        <v>1202.23046875</v>
       </c>
       <c r="C3">
-        <v>0.913</v>
+        <v>0.9618</v>
       </c>
       <c r="D3">
-        <v>0.9068000000000001</v>
+        <v>0.9407</v>
       </c>
       <c r="E3">
-        <v>1.23769998550415</v>
+        <v>2.047100067138672</v>
       </c>
       <c r="F3">
-        <v>0.8561000227928162</v>
+        <v>0.7408999800682068</v>
       </c>
       <c r="G3">
         <v>12.5</v>
       </c>
       <c r="H3">
-        <v>0.7727000000000001</v>
+        <v>1.0737</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -508,25 +508,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>764.6358032226562</v>
+        <v>730.177490234375</v>
       </c>
       <c r="C4">
-        <v>0.8933</v>
+        <v>0.853</v>
       </c>
       <c r="D4">
-        <v>0.8933</v>
+        <v>0.8435</v>
       </c>
       <c r="E4">
-        <v>0.9495999813079834</v>
+        <v>1.135800004005432</v>
       </c>
       <c r="F4">
-        <v>0.8312000036239624</v>
+        <v>0.7342000007629395</v>
       </c>
       <c r="G4">
         <v>8.56</v>
       </c>
       <c r="H4">
-        <v>0.6536999999999999</v>
+        <v>0.2126</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -534,25 +534,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>848.4271240234375</v>
+        <v>727.30419921875</v>
       </c>
       <c r="C5">
-        <v>0.895</v>
+        <v>0.7672</v>
       </c>
       <c r="D5">
-        <v>0.8942</v>
+        <v>0.761</v>
       </c>
       <c r="E5">
-        <v>0.991100013256073</v>
+        <v>1.112400054931641</v>
       </c>
       <c r="F5">
-        <v>0.8418999910354614</v>
+        <v>0.6722999811172485</v>
       </c>
       <c r="G5">
         <v>9.48</v>
       </c>
       <c r="H5">
-        <v>0.661</v>
+        <v>-0.5187</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -560,25 +560,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1145.98583984375</v>
+        <v>1057.1865234375</v>
       </c>
       <c r="C6">
-        <v>0.9066</v>
+        <v>0.8364</v>
       </c>
       <c r="D6">
-        <v>0.9067</v>
+        <v>0.8395</v>
       </c>
       <c r="E6">
-        <v>0.9681000113487244</v>
+        <v>1.127099990844727</v>
       </c>
       <c r="F6">
-        <v>0.8309999704360962</v>
+        <v>0.7050999999046326</v>
       </c>
       <c r="G6">
         <v>12.64</v>
       </c>
       <c r="H6">
-        <v>0.7723</v>
+        <v>0.1768</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -586,25 +586,25 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>925.951171875</v>
+        <v>913.6450805664062</v>
       </c>
       <c r="C7">
-        <v>0.9325</v>
+        <v>0.9201</v>
       </c>
       <c r="D7">
-        <v>0.9300000071525574</v>
+        <v>0.9129999876022339</v>
       </c>
       <c r="E7">
-        <v>1.064100027084351</v>
+        <v>1.260900020599365</v>
       </c>
       <c r="F7">
-        <v>0.8758000135421753</v>
+        <v>0.7613999843597412</v>
       </c>
       <c r="G7">
         <v>9.93</v>
       </c>
       <c r="H7">
-        <v>0.9787</v>
+        <v>0.8276</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -612,25 +612,25 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>1038.666381835938</v>
+        <v>1033.1396484375</v>
       </c>
       <c r="C8">
-        <v>0.9307</v>
+        <v>0.9258</v>
       </c>
       <c r="D8">
-        <v>0.9292</v>
+        <v>0.9162</v>
       </c>
       <c r="E8">
-        <v>1.075399994850159</v>
+        <v>1.295899987220764</v>
       </c>
       <c r="F8">
-        <v>0.888700008392334</v>
+        <v>0.8040000200271606</v>
       </c>
       <c r="G8">
         <v>11.16</v>
       </c>
       <c r="H8">
-        <v>0.9718</v>
+        <v>0.8563</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -638,25 +638,25 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>7125.7177734375</v>
+        <v>6972.49462890625</v>
       </c>
       <c r="C9">
-        <v>0.9183</v>
+        <v>0.8986</v>
       </c>
       <c r="D9">
-        <v>0.9121</v>
+        <v>0.8848</v>
       </c>
       <c r="E9">
-        <v>1.23769998550415</v>
+        <v>2.047100067138672</v>
       </c>
       <c r="F9">
-        <v>0.8309999704360962</v>
+        <v>0.6722999811172485</v>
       </c>
       <c r="G9">
         <v>77.59999999999999</v>
       </c>
       <c r="H9">
-        <v>5.6661</v>
+        <v>3.6312</v>
       </c>
     </row>
   </sheetData>
